--- a/Code/Results/Cases/Case_5_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.57198167016304</v>
+        <v>19.22748317849181</v>
       </c>
       <c r="C2">
-        <v>11.10765229166595</v>
+        <v>8.355915025247411</v>
       </c>
       <c r="D2">
-        <v>4.961673408374363</v>
+        <v>8.103667696083248</v>
       </c>
       <c r="E2">
-        <v>7.304846893811366</v>
+        <v>12.63965890866636</v>
       </c>
       <c r="F2">
-        <v>24.48961445749114</v>
+        <v>35.63091631070544</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.62844023406247</v>
+        <v>9.859911517634377</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.347114703214856</v>
+        <v>11.19252879243041</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.41410962197264</v>
+        <v>18.51592985720283</v>
       </c>
       <c r="O2">
-        <v>18.1007172945457</v>
+        <v>27.36555060436836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.21292962075424</v>
+        <v>18.8310529769231</v>
       </c>
       <c r="C3">
-        <v>10.58369083000294</v>
+        <v>8.125909172112635</v>
       </c>
       <c r="D3">
-        <v>4.880534878772036</v>
+        <v>8.10361583943963</v>
       </c>
       <c r="E3">
-        <v>7.33338143808336</v>
+        <v>12.66858514225142</v>
       </c>
       <c r="F3">
-        <v>24.06359541673213</v>
+        <v>35.68512573369716</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.686011083879792</v>
+        <v>9.882424730450563</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.150044849994966</v>
+        <v>11.17846103245517</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.58249596275689</v>
+        <v>18.57153812877309</v>
       </c>
       <c r="O3">
-        <v>17.89405254269777</v>
+        <v>27.42774904111684</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.33581208189856</v>
+        <v>18.58641455618903</v>
       </c>
       <c r="C4">
-        <v>10.24809352776376</v>
+        <v>7.980213968520701</v>
       </c>
       <c r="D4">
-        <v>4.831594933464256</v>
+        <v>8.10441478491089</v>
       </c>
       <c r="E4">
-        <v>7.353847551926049</v>
+        <v>12.68773708461488</v>
       </c>
       <c r="F4">
-        <v>23.82070086499995</v>
+        <v>35.72695103253579</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.722632016837705</v>
+        <v>9.897002703885537</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.02891290730491</v>
+        <v>11.17119862931815</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.6892974568404</v>
+        <v>18.60755564933989</v>
       </c>
       <c r="O4">
-        <v>17.78275745380711</v>
+        <v>27.47217397885904</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.96778976352501</v>
+        <v>18.48655056470074</v>
       </c>
       <c r="C5">
-        <v>10.10794408108784</v>
+        <v>7.919775578427736</v>
       </c>
       <c r="D5">
-        <v>4.811890665181963</v>
+        <v>8.104950050786941</v>
       </c>
       <c r="E5">
-        <v>7.362913176155413</v>
+        <v>12.69589192634582</v>
       </c>
       <c r="F5">
-        <v>23.72640422048579</v>
+        <v>35.74613865516616</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.737878225419577</v>
+        <v>9.903133647265431</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.979581543600988</v>
+        <v>11.16858732881962</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.7336795677351</v>
+        <v>18.62270535606318</v>
       </c>
       <c r="O5">
-        <v>17.74124172836942</v>
+        <v>27.49184163534586</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.90604522047526</v>
+        <v>18.46996192502061</v>
       </c>
       <c r="C6">
-        <v>10.08447087837311</v>
+        <v>7.909677198482005</v>
       </c>
       <c r="D6">
-        <v>4.808633753437048</v>
+        <v>8.105051617930927</v>
       </c>
       <c r="E6">
-        <v>7.364461899187296</v>
+        <v>12.69726720059509</v>
       </c>
       <c r="F6">
-        <v>23.71102859135598</v>
+        <v>35.74945407147543</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.740429434535877</v>
+        <v>9.904163194405664</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.971393891507893</v>
+        <v>11.16817481990404</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.74110116935726</v>
+        <v>18.62524950981157</v>
       </c>
       <c r="O6">
-        <v>17.73457720335563</v>
+        <v>27.49520179084912</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.33089146896805</v>
+        <v>18.58506826740705</v>
       </c>
       <c r="C7">
-        <v>10.24621700633197</v>
+        <v>7.979403113445644</v>
       </c>
       <c r="D7">
-        <v>4.83132820280679</v>
+        <v>8.104421153664235</v>
       </c>
       <c r="E7">
-        <v>7.353966896281297</v>
+        <v>12.68784564481635</v>
       </c>
       <c r="F7">
-        <v>23.81941020763026</v>
+        <v>35.72720113068282</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.722836321274921</v>
+        <v>9.897084616736054</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.028247395918433</v>
+        <v>11.17116199960381</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.68989252595615</v>
+        <v>18.60775804991535</v>
       </c>
       <c r="O7">
-        <v>17.78218213774182</v>
+        <v>27.47243289575747</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.11230137417269</v>
+        <v>19.09113009239249</v>
       </c>
       <c r="C8">
-        <v>10.92992605959328</v>
+        <v>8.277570153677489</v>
       </c>
       <c r="D8">
-        <v>4.933525153605246</v>
+        <v>8.103477866897506</v>
       </c>
       <c r="E8">
-        <v>7.314064901302548</v>
+        <v>12.64934422573422</v>
       </c>
       <c r="F8">
-        <v>24.33884221671289</v>
+        <v>35.64783288696815</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.648028424781836</v>
+        <v>9.867517727160255</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.279229233341726</v>
+        <v>11.18739426166459</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.47146198984254</v>
+        <v>18.53471533193919</v>
       </c>
       <c r="O8">
-        <v>18.02617449743653</v>
+        <v>27.38570047220432</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.29259308569393</v>
+        <v>20.06796052008097</v>
       </c>
       <c r="C9">
-        <v>12.15704500746674</v>
+        <v>8.82449501727042</v>
       </c>
       <c r="D9">
-        <v>5.140122692380266</v>
+        <v>8.108184646511269</v>
       </c>
       <c r="E9">
-        <v>7.25989836409628</v>
+        <v>12.58486036538966</v>
       </c>
       <c r="F9">
-        <v>25.50560301243323</v>
+        <v>35.56011127419439</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.511287113776278</v>
+        <v>9.815502693231327</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.767757763572368</v>
+        <v>11.23002794669172</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.07014784348349</v>
+        <v>18.40629728028926</v>
       </c>
       <c r="O9">
-        <v>18.63164847963334</v>
+        <v>27.26524078556178</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.5028651616386</v>
+        <v>20.76874861954599</v>
       </c>
       <c r="C10">
-        <v>12.98581356090489</v>
+        <v>9.200517073293325</v>
       </c>
       <c r="D10">
-        <v>5.294653318137033</v>
+        <v>8.11559079084652</v>
       </c>
       <c r="E10">
-        <v>7.235795210448195</v>
+        <v>12.54417237425893</v>
       </c>
       <c r="F10">
-        <v>26.45235497294133</v>
+        <v>35.53723489104181</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.416698446879821</v>
+        <v>9.78089146065328</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.121267343320104</v>
+        <v>11.2677806887405</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.79179176675137</v>
+        <v>18.32091351637763</v>
       </c>
       <c r="O10">
-        <v>19.15767602012103</v>
+        <v>27.2071786534323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.45629295107476</v>
+        <v>21.08244224020467</v>
       </c>
       <c r="C11">
-        <v>13.34656787377004</v>
+        <v>9.365476359181145</v>
       </c>
       <c r="D11">
-        <v>5.365342804166427</v>
+        <v>8.119805954673129</v>
       </c>
       <c r="E11">
-        <v>7.228468426920999</v>
+        <v>12.5271086934959</v>
       </c>
       <c r="F11">
-        <v>26.9021939504628</v>
+        <v>35.53587382266505</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.374901037331255</v>
+        <v>9.765921632414369</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.280335241876655</v>
+        <v>11.2863150046207</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.6687733048071</v>
+        <v>18.28400255283729</v>
       </c>
       <c r="O11">
-        <v>19.41523886251527</v>
+        <v>27.18740703136162</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.80993839117955</v>
+        <v>21.2003854121645</v>
       </c>
       <c r="C12">
-        <v>13.48081408408034</v>
+        <v>9.427029319143752</v>
       </c>
       <c r="D12">
-        <v>5.392151432591895</v>
+        <v>8.12152272676904</v>
       </c>
       <c r="E12">
-        <v>7.226237051096509</v>
+        <v>12.52085452089929</v>
       </c>
       <c r="F12">
-        <v>27.07526066746355</v>
+        <v>35.53665913752381</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.359247187570169</v>
+        <v>9.76036387477008</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.340277885534311</v>
+        <v>11.29352569144129</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.62271382061843</v>
+        <v>18.27030190274303</v>
       </c>
       <c r="O12">
-        <v>19.51544005996809</v>
+        <v>27.18087698082807</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.73410207315565</v>
+        <v>21.1750235731461</v>
       </c>
       <c r="C13">
-        <v>13.4520071902363</v>
+        <v>9.413813967951681</v>
       </c>
       <c r="D13">
-        <v>5.386376182170651</v>
+        <v>8.12114764409943</v>
       </c>
       <c r="E13">
-        <v>7.226693135485535</v>
+        <v>12.52219224761547</v>
       </c>
       <c r="F13">
-        <v>27.03786705614518</v>
+        <v>35.53643216589519</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.362610839243204</v>
+        <v>9.761555908091642</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.327381801666114</v>
+        <v>11.29196425253497</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.6326100847348</v>
+        <v>18.2732402889436</v>
       </c>
       <c r="O13">
-        <v>19.49374068793298</v>
+        <v>27.18224075180026</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.48553530887435</v>
+        <v>21.0921630663607</v>
       </c>
       <c r="C14">
-        <v>13.35765987374234</v>
+        <v>9.370558865849647</v>
       </c>
       <c r="D14">
-        <v>5.367547653267144</v>
+        <v>8.119944784308391</v>
       </c>
       <c r="E14">
-        <v>7.228273847992556</v>
+        <v>12.52659000310067</v>
       </c>
       <c r="F14">
-        <v>26.91637786697359</v>
+        <v>35.53591236591197</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.373609718117142</v>
+        <v>9.765462170486138</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.285272850468242</v>
+        <v>11.28690440183679</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.66497339914475</v>
+        <v>18.28286985096265</v>
       </c>
       <c r="O14">
-        <v>19.42342879221959</v>
+        <v>27.18685060963305</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.33232032797738</v>
+        <v>21.04129524655145</v>
       </c>
       <c r="C15">
-        <v>13.29956100678215</v>
+        <v>9.343943861340009</v>
       </c>
       <c r="D15">
-        <v>5.35601938457166</v>
+        <v>8.119223668149161</v>
       </c>
       <c r="E15">
-        <v>7.229313417219502</v>
+        <v>12.52931076294367</v>
       </c>
       <c r="F15">
-        <v>26.84231585883223</v>
+        <v>35.53576334982318</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.380369405106346</v>
+        <v>9.767869310022983</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.259440604342645</v>
+        <v>11.28383001386796</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.68486544899153</v>
+        <v>18.28880424857854</v>
       </c>
       <c r="O15">
-        <v>19.38070927591642</v>
+        <v>27.18979896795032</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.43951651320656</v>
+        <v>20.74813561609268</v>
       </c>
       <c r="C16">
-        <v>12.96190784399838</v>
+        <v>9.189610690609646</v>
       </c>
       <c r="D16">
-        <v>5.290040066923226</v>
+        <v>8.115332253692866</v>
       </c>
       <c r="E16">
-        <v>7.2363489274951</v>
+        <v>12.54531657982824</v>
       </c>
       <c r="F16">
-        <v>26.42333961969637</v>
+        <v>35.53750587875537</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.419454515775939</v>
+        <v>9.781885330274228</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.110833051459968</v>
+        <v>11.26659650861685</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.79990438095464</v>
+        <v>18.32336450641272</v>
       </c>
       <c r="O16">
-        <v>19.14121488940188</v>
+        <v>27.2086045969476</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.87854179199993</v>
+        <v>20.56690341627054</v>
       </c>
       <c r="C17">
-        <v>12.75058313428687</v>
+        <v>9.093343592225379</v>
       </c>
       <c r="D17">
-        <v>5.249652440770455</v>
+        <v>8.113160941916453</v>
       </c>
       <c r="E17">
-        <v>7.241610709008557</v>
+        <v>12.55550557964415</v>
       </c>
       <c r="F17">
-        <v>26.17119435054647</v>
+        <v>35.54089191781542</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.443745121744727</v>
+        <v>9.790681876461962</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.01918853652178</v>
+        <v>11.25637031919738</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.87140467540749</v>
+        <v>18.34505993020115</v>
       </c>
       <c r="O17">
-        <v>18.99900258049692</v>
+        <v>27.22184378925772</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.55098059623926</v>
+        <v>20.46218984696122</v>
       </c>
       <c r="C18">
-        <v>12.62750546080941</v>
+        <v>9.037401574655437</v>
       </c>
       <c r="D18">
-        <v>5.226460428943432</v>
+        <v>8.111991765148598</v>
       </c>
       <c r="E18">
-        <v>7.244978316044295</v>
+        <v>12.561502102389</v>
       </c>
       <c r="F18">
-        <v>26.02797214069406</v>
+        <v>35.54369094256854</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.457832534985367</v>
+        <v>9.795814390079736</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.966314919081212</v>
+        <v>11.2506167520367</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.9128687764092</v>
+        <v>18.35772032661955</v>
       </c>
       <c r="O18">
-        <v>18.91892344588734</v>
+        <v>27.23008362216783</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.43922932621518</v>
+        <v>20.42665784089751</v>
       </c>
       <c r="C19">
-        <v>12.58557177572137</v>
+        <v>9.018363566856253</v>
       </c>
       <c r="D19">
-        <v>5.218615037460032</v>
+        <v>8.111609623433438</v>
       </c>
       <c r="E19">
-        <v>7.246176529629563</v>
+        <v>12.56355580553148</v>
       </c>
       <c r="F19">
-        <v>25.97979059576846</v>
+        <v>35.54478486958683</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.462622327428322</v>
+        <v>9.797564718021658</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.948386343917452</v>
+        <v>11.2486908263188</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.92696588083154</v>
+        <v>18.36203816435019</v>
       </c>
       <c r="O19">
-        <v>18.89210372210021</v>
+        <v>27.23298076283866</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.93876538625734</v>
+        <v>20.58624574825544</v>
       </c>
       <c r="C20">
-        <v>12.77323750595175</v>
+        <v>9.103650841750349</v>
       </c>
       <c r="D20">
-        <v>5.253947974435734</v>
+        <v>8.113383840351093</v>
       </c>
       <c r="E20">
-        <v>7.241015131307507</v>
+        <v>12.55440686230273</v>
       </c>
       <c r="F20">
-        <v>26.19784906626634</v>
+        <v>35.54044334193526</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.441147352337201</v>
+        <v>9.789737919968458</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.028961351109134</v>
+        <v>11.25744566411095</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.86375822114629</v>
+        <v>18.34273160999226</v>
       </c>
       <c r="O20">
-        <v>19.01396324894963</v>
+        <v>27.22036975327363</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.55874543245084</v>
+        <v>21.11652502214944</v>
       </c>
       <c r="C21">
-        <v>13.38543627265218</v>
+        <v>9.383289007766466</v>
       </c>
       <c r="D21">
-        <v>5.373077086558894</v>
+        <v>8.120294829737613</v>
       </c>
       <c r="E21">
-        <v>7.227794650991318</v>
+        <v>12.52529264803816</v>
       </c>
       <c r="F21">
-        <v>26.95198854443714</v>
+        <v>35.53602974718223</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.370374385743086</v>
+        <v>9.764311797834141</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.297649526900161</v>
+        <v>11.28838541646442</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.65545320179941</v>
+        <v>18.28003391166698</v>
       </c>
       <c r="O21">
-        <v>19.44400839593817</v>
+        <v>27.1854705948886</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.57442473983215</v>
+        <v>21.45811613888697</v>
       </c>
       <c r="C22">
-        <v>13.77176140484439</v>
+        <v>9.560709332482991</v>
       </c>
       <c r="D22">
-        <v>5.451161572974303</v>
+        <v>8.12551386089641</v>
       </c>
       <c r="E22">
-        <v>7.22232987164238</v>
+        <v>12.50747395768527</v>
       </c>
       <c r="F22">
-        <v>27.46071851186042</v>
+        <v>35.54072615581297</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.325132450435998</v>
+        <v>9.748341093843967</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.471529876688964</v>
+        <v>11.30972456494274</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.52237812010794</v>
+        <v>18.24066994858188</v>
       </c>
       <c r="O22">
-        <v>19.7406338055166</v>
+        <v>27.16824093887675</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.03624876925584</v>
+        <v>21.27629326606183</v>
       </c>
       <c r="C23">
-        <v>13.56683950588228</v>
+        <v>9.46651659771794</v>
       </c>
       <c r="D23">
-        <v>5.409470777957514</v>
+        <v>8.122664476235588</v>
       </c>
       <c r="E23">
-        <v>7.224949144405669</v>
+        <v>12.51687362026422</v>
       </c>
       <c r="F23">
-        <v>27.18775872716154</v>
+        <v>35.53752617812466</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.349187340677224</v>
+        <v>9.756805930751391</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.378896740036899</v>
+        <v>11.29823433327508</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.59311975690861</v>
+        <v>18.26153196710732</v>
       </c>
       <c r="O23">
-        <v>19.58088250242018</v>
+        <v>27.17692569308176</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.91155403333185</v>
+        <v>20.57750269335235</v>
       </c>
       <c r="C24">
-        <v>12.76300039713086</v>
+        <v>9.09899279026607</v>
       </c>
       <c r="D24">
-        <v>5.252005877145834</v>
+        <v>8.113282821389946</v>
       </c>
       <c r="E24">
-        <v>7.241283326558244</v>
+        <v>12.55490316025446</v>
       </c>
       <c r="F24">
-        <v>26.18579304873448</v>
+        <v>35.54064348806568</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.442321422335322</v>
+        <v>9.790164448227157</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.024543637627895</v>
+        <v>11.25695910916946</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.8672140696251</v>
+        <v>18.34378365970834</v>
       </c>
       <c r="O24">
-        <v>19.00719429909396</v>
+        <v>27.2210342075002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.44793732363166</v>
+        <v>19.80615498248554</v>
       </c>
       <c r="C25">
-        <v>11.83766087397036</v>
+        <v>8.680885141230391</v>
       </c>
       <c r="D25">
-        <v>5.083678034740443</v>
+        <v>8.106214270931869</v>
       </c>
       <c r="E25">
-        <v>7.271871587368685</v>
+        <v>12.60112839112652</v>
       </c>
       <c r="F25">
-        <v>25.17414844487825</v>
+        <v>35.57655051307722</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.547233356412878</v>
+        <v>9.828938867120472</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.636335145323003</v>
+        <v>11.21735331956632</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.17582406264108</v>
+        <v>18.43945853815866</v>
       </c>
       <c r="O25">
-        <v>18.45383078775432</v>
+        <v>27.2924949401667</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.22748317849181</v>
+        <v>21.57198167016303</v>
       </c>
       <c r="C2">
-        <v>8.355915025247411</v>
+        <v>11.10765229166588</v>
       </c>
       <c r="D2">
-        <v>8.103667696083248</v>
+        <v>4.961673408374265</v>
       </c>
       <c r="E2">
-        <v>12.63965890866636</v>
+        <v>7.304846893811304</v>
       </c>
       <c r="F2">
-        <v>35.63091631070544</v>
+        <v>24.4896144574911</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.859911517634377</v>
+        <v>5.628440234062535</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.19252879243041</v>
+        <v>7.347114703214852</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.51592985720283</v>
+        <v>12.41410962197267</v>
       </c>
       <c r="O2">
-        <v>27.36555060436836</v>
+        <v>18.10071729454575</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.8310529769231</v>
+        <v>20.21292962075426</v>
       </c>
       <c r="C3">
-        <v>8.125909172112635</v>
+        <v>10.58369083000303</v>
       </c>
       <c r="D3">
-        <v>8.10361583943963</v>
+        <v>4.880534878772039</v>
       </c>
       <c r="E3">
-        <v>12.66858514225142</v>
+        <v>7.333381438083242</v>
       </c>
       <c r="F3">
-        <v>35.68512573369716</v>
+        <v>24.06359541673222</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.882424730450563</v>
+        <v>5.686011083879693</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.17846103245517</v>
+        <v>7.15004484999491</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.57153812877309</v>
+        <v>12.58249596275692</v>
       </c>
       <c r="O3">
-        <v>27.42774904111684</v>
+        <v>17.89405254269782</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58641455618903</v>
+        <v>19.3358120818986</v>
       </c>
       <c r="C4">
-        <v>7.980213968520701</v>
+        <v>10.24809352776373</v>
       </c>
       <c r="D4">
-        <v>8.10441478491089</v>
+        <v>4.831594933464193</v>
       </c>
       <c r="E4">
-        <v>12.68773708461488</v>
+        <v>7.353847551925925</v>
       </c>
       <c r="F4">
-        <v>35.72695103253579</v>
+        <v>23.82070086500001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.897002703885537</v>
+        <v>5.722632016837708</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.17119862931815</v>
+        <v>7.028912907304926</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.60755564933989</v>
+        <v>12.6892974568405</v>
       </c>
       <c r="O4">
-        <v>27.47217397885904</v>
+        <v>17.7827574538072</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48655056470074</v>
+        <v>18.96778976352501</v>
       </c>
       <c r="C5">
-        <v>7.919775578427736</v>
+        <v>10.10794408108801</v>
       </c>
       <c r="D5">
-        <v>8.104950050786941</v>
+        <v>4.811890665182013</v>
       </c>
       <c r="E5">
-        <v>12.69589192634582</v>
+        <v>7.362913176155475</v>
       </c>
       <c r="F5">
-        <v>35.74613865516616</v>
+        <v>23.72640422048592</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.903133647265431</v>
+        <v>5.737878225419577</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.16858732881962</v>
+        <v>6.979581543600966</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.62270535606318</v>
+        <v>12.73367956773518</v>
       </c>
       <c r="O5">
-        <v>27.49184163534586</v>
+        <v>17.74124172836949</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.46996192502061</v>
+        <v>18.90604522047528</v>
       </c>
       <c r="C6">
-        <v>7.909677198482005</v>
+        <v>10.08447087837309</v>
       </c>
       <c r="D6">
-        <v>8.105051617930927</v>
+        <v>4.808633753436989</v>
       </c>
       <c r="E6">
-        <v>12.69726720059509</v>
+        <v>7.364461899187358</v>
       </c>
       <c r="F6">
-        <v>35.74945407147543</v>
+        <v>23.711028591356</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.904163194405664</v>
+        <v>5.740429434535878</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.16817481990404</v>
+        <v>6.971393891507935</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.62524950981157</v>
+        <v>12.74110116935726</v>
       </c>
       <c r="O6">
-        <v>27.49520179084912</v>
+        <v>17.73457720335565</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58506826740705</v>
+        <v>19.33089146896804</v>
       </c>
       <c r="C7">
-        <v>7.979403113445644</v>
+        <v>10.24621700633187</v>
       </c>
       <c r="D7">
-        <v>8.104421153664235</v>
+        <v>4.831328202806731</v>
       </c>
       <c r="E7">
-        <v>12.68784564481635</v>
+        <v>7.353966896281361</v>
       </c>
       <c r="F7">
-        <v>35.72720113068282</v>
+        <v>23.81941020763059</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.897084616736054</v>
+        <v>5.722836321274887</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.17116199960381</v>
+        <v>7.028247395918441</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.60775804991535</v>
+        <v>12.68989252595629</v>
       </c>
       <c r="O7">
-        <v>27.47243289575747</v>
+        <v>17.78218213774212</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.09113009239249</v>
+        <v>21.11230137417267</v>
       </c>
       <c r="C8">
-        <v>8.277570153677489</v>
+        <v>10.9299260595932</v>
       </c>
       <c r="D8">
-        <v>8.103477866897506</v>
+        <v>4.933525153605141</v>
       </c>
       <c r="E8">
-        <v>12.64934422573422</v>
+        <v>7.314064901302427</v>
       </c>
       <c r="F8">
-        <v>35.64783288696815</v>
+        <v>24.33884221671288</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.867517727160255</v>
+        <v>5.648028424781768</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.18739426166459</v>
+        <v>7.279229233341719</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.53471533193919</v>
+        <v>12.47146198984254</v>
       </c>
       <c r="O8">
-        <v>27.38570047220432</v>
+        <v>18.02617449743656</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.06796052008097</v>
+        <v>24.29259308569389</v>
       </c>
       <c r="C9">
-        <v>8.82449501727042</v>
+        <v>12.15704500746673</v>
       </c>
       <c r="D9">
-        <v>8.108184646511269</v>
+        <v>5.140122692380222</v>
       </c>
       <c r="E9">
-        <v>12.58486036538966</v>
+        <v>7.25989836409629</v>
       </c>
       <c r="F9">
-        <v>35.56011127419439</v>
+        <v>25.50560301243326</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.815502693231327</v>
+        <v>5.511287113776348</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.23002794669172</v>
+        <v>7.767757763572399</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.40629728028926</v>
+        <v>12.07014784348345</v>
       </c>
       <c r="O9">
-        <v>27.26524078556178</v>
+        <v>18.63164847963339</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.76874861954599</v>
+        <v>26.50286516163863</v>
       </c>
       <c r="C10">
-        <v>9.200517073293325</v>
+        <v>12.98581356090486</v>
       </c>
       <c r="D10">
-        <v>8.11559079084652</v>
+        <v>5.294653318137175</v>
       </c>
       <c r="E10">
-        <v>12.54417237425893</v>
+        <v>7.235795210448195</v>
       </c>
       <c r="F10">
-        <v>35.53723489104181</v>
+        <v>26.45235497294129</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.78089146065328</v>
+        <v>5.416698446879757</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.2677806887405</v>
+        <v>8.121267343320133</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.32091351637763</v>
+        <v>11.79179176675131</v>
       </c>
       <c r="O10">
-        <v>27.2071786534323</v>
+        <v>19.15767602012095</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.08244224020467</v>
+        <v>27.45629295107476</v>
       </c>
       <c r="C11">
-        <v>9.365476359181145</v>
+        <v>13.34656787376995</v>
       </c>
       <c r="D11">
-        <v>8.119805954673129</v>
+        <v>5.365342804166382</v>
       </c>
       <c r="E11">
-        <v>12.5271086934959</v>
+        <v>7.228468426920943</v>
       </c>
       <c r="F11">
-        <v>35.53587382266505</v>
+        <v>26.90219395046279</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.765921632414369</v>
+        <v>5.374901037331255</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.2863150046207</v>
+        <v>8.280335241876646</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.28400255283729</v>
+        <v>11.66877330480711</v>
       </c>
       <c r="O11">
-        <v>27.18740703136162</v>
+        <v>19.41523886251527</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.2003854121645</v>
+        <v>27.80993839117957</v>
       </c>
       <c r="C12">
-        <v>9.427029319143752</v>
+        <v>13.48081408408015</v>
       </c>
       <c r="D12">
-        <v>8.12152272676904</v>
+        <v>5.392151432591852</v>
       </c>
       <c r="E12">
-        <v>12.52085452089929</v>
+        <v>7.226237051096557</v>
       </c>
       <c r="F12">
-        <v>35.53665913752381</v>
+        <v>27.07526066746361</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.76036387477008</v>
+        <v>5.359247187570198</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.29352569144129</v>
+        <v>8.34027788553435</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.27030190274303</v>
+        <v>11.62271382061846</v>
       </c>
       <c r="O12">
-        <v>27.18087698082807</v>
+        <v>19.51544005996814</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.1750235731461</v>
+        <v>27.7341020731557</v>
       </c>
       <c r="C13">
-        <v>9.413813967951681</v>
+        <v>13.45200719023635</v>
       </c>
       <c r="D13">
-        <v>8.12114764409943</v>
+        <v>5.386376182170589</v>
       </c>
       <c r="E13">
-        <v>12.52219224761547</v>
+        <v>7.22669313548554</v>
       </c>
       <c r="F13">
-        <v>35.53643216589519</v>
+        <v>27.03786705614515</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.761555908091642</v>
+        <v>5.362610839243268</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.29196425253497</v>
+        <v>8.327381801666091</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.2732402889436</v>
+        <v>11.6326100847348</v>
       </c>
       <c r="O13">
-        <v>27.18224075180026</v>
+        <v>19.49374068793298</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.0921630663607</v>
+        <v>27.4855353088744</v>
       </c>
       <c r="C14">
-        <v>9.370558865849647</v>
+        <v>13.35765987374236</v>
       </c>
       <c r="D14">
-        <v>8.119944784308391</v>
+        <v>5.367547653267106</v>
       </c>
       <c r="E14">
-        <v>12.52659000310067</v>
+        <v>7.228273847992499</v>
       </c>
       <c r="F14">
-        <v>35.53591236591197</v>
+        <v>26.91637786697352</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.765462170486138</v>
+        <v>5.373609718117113</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.28690440183679</v>
+        <v>8.28527285046821</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.28286985096265</v>
+        <v>11.66497339914472</v>
       </c>
       <c r="O14">
-        <v>27.18685060963305</v>
+        <v>19.42342879221955</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.04129524655145</v>
+        <v>27.33232032797743</v>
       </c>
       <c r="C15">
-        <v>9.343943861340009</v>
+        <v>13.2995610067819</v>
       </c>
       <c r="D15">
-        <v>8.119223668149161</v>
+        <v>5.356019384571614</v>
       </c>
       <c r="E15">
-        <v>12.52931076294367</v>
+        <v>7.229313417219327</v>
       </c>
       <c r="F15">
-        <v>35.53576334982318</v>
+        <v>26.84231585883218</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.767869310022983</v>
+        <v>5.380369405106281</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.28383001386796</v>
+        <v>8.259440604342632</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.28880424857854</v>
+        <v>11.68486544899149</v>
       </c>
       <c r="O15">
-        <v>27.18979896795032</v>
+        <v>19.3807092759164</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.74813561609268</v>
+        <v>26.43951651320663</v>
       </c>
       <c r="C16">
-        <v>9.189610690609646</v>
+        <v>12.96190784399838</v>
       </c>
       <c r="D16">
-        <v>8.115332253692866</v>
+        <v>5.290040066923281</v>
       </c>
       <c r="E16">
-        <v>12.54531657982824</v>
+        <v>7.236348927495053</v>
       </c>
       <c r="F16">
-        <v>35.53750587875537</v>
+        <v>26.42333961969621</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.781885330274228</v>
+        <v>5.419454515775874</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.26659650861685</v>
+        <v>8.110833051459942</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.32336450641272</v>
+        <v>11.79990438095458</v>
       </c>
       <c r="O16">
-        <v>27.2086045969476</v>
+        <v>19.14121488940172</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.56690341627054</v>
+        <v>25.87854179199988</v>
       </c>
       <c r="C17">
-        <v>9.093343592225379</v>
+        <v>12.75058313428678</v>
       </c>
       <c r="D17">
-        <v>8.113160941916453</v>
+        <v>5.249652440770407</v>
       </c>
       <c r="E17">
-        <v>12.55550557964415</v>
+        <v>7.241610709008491</v>
       </c>
       <c r="F17">
-        <v>35.54089191781542</v>
+        <v>26.17119435054655</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.790681876461962</v>
+        <v>5.44374512174466</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.25637031919738</v>
+        <v>8.019188536521714</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.34505993020115</v>
+        <v>11.87140467540752</v>
       </c>
       <c r="O17">
-        <v>27.22184378925772</v>
+        <v>18.99900258049697</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.46218984696122</v>
+        <v>25.55098059623921</v>
       </c>
       <c r="C18">
-        <v>9.037401574655437</v>
+        <v>12.62750546080943</v>
       </c>
       <c r="D18">
-        <v>8.111991765148598</v>
+        <v>5.226460428943287</v>
       </c>
       <c r="E18">
-        <v>12.561502102389</v>
+        <v>7.244978316044293</v>
       </c>
       <c r="F18">
-        <v>35.54369094256854</v>
+        <v>26.02797214069408</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.795814390079736</v>
+        <v>5.457832534985465</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.2506167520367</v>
+        <v>7.966314919081174</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.35772032661955</v>
+        <v>11.91286877640928</v>
       </c>
       <c r="O18">
-        <v>27.23008362216783</v>
+        <v>18.91892344588741</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.42665784089751</v>
+        <v>25.43922932621516</v>
       </c>
       <c r="C19">
-        <v>9.018363566856253</v>
+        <v>12.58557177572141</v>
       </c>
       <c r="D19">
-        <v>8.111609623433438</v>
+        <v>5.218615037460066</v>
       </c>
       <c r="E19">
-        <v>12.56355580553148</v>
+        <v>7.246176529629501</v>
       </c>
       <c r="F19">
-        <v>35.54478486958683</v>
+        <v>25.97979059576858</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.797564718021658</v>
+        <v>5.462622327428289</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.2486908263188</v>
+        <v>7.948386343917437</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.36203816435019</v>
+        <v>11.92696588083157</v>
       </c>
       <c r="O19">
-        <v>27.23298076283866</v>
+        <v>18.89210372210027</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.58624574825544</v>
+        <v>25.93876538625739</v>
       </c>
       <c r="C20">
-        <v>9.103650841750349</v>
+        <v>12.77323750595181</v>
       </c>
       <c r="D20">
-        <v>8.113383840351093</v>
+        <v>5.253947974435832</v>
       </c>
       <c r="E20">
-        <v>12.55440686230273</v>
+        <v>7.241015131307566</v>
       </c>
       <c r="F20">
-        <v>35.54044334193526</v>
+        <v>26.19784906626629</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.789737919968458</v>
+        <v>5.441147352337136</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.25744566411095</v>
+        <v>8.02896135110916</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.34273160999226</v>
+        <v>11.86375822114627</v>
       </c>
       <c r="O20">
-        <v>27.22036975327363</v>
+        <v>19.01396324894953</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.11652502214944</v>
+        <v>27.55874543245081</v>
       </c>
       <c r="C21">
-        <v>9.383289007766466</v>
+        <v>13.38543627265224</v>
       </c>
       <c r="D21">
-        <v>8.120294829737613</v>
+        <v>5.373077086558774</v>
       </c>
       <c r="E21">
-        <v>12.52529264803816</v>
+        <v>7.227794650991322</v>
       </c>
       <c r="F21">
-        <v>35.53602974718223</v>
+        <v>26.95198854443708</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.764311797834141</v>
+        <v>5.370374385743213</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.28838541646442</v>
+        <v>8.297649526900159</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.28003391166698</v>
+        <v>11.65545320179938</v>
       </c>
       <c r="O21">
-        <v>27.1854705948886</v>
+        <v>19.44400839593814</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.45811613888697</v>
+        <v>28.57442473983224</v>
       </c>
       <c r="C22">
-        <v>9.560709332482991</v>
+        <v>13.77176140484439</v>
       </c>
       <c r="D22">
-        <v>8.12551386089641</v>
+        <v>5.451161572974303</v>
       </c>
       <c r="E22">
-        <v>12.50747395768527</v>
+        <v>7.222329871642337</v>
       </c>
       <c r="F22">
-        <v>35.54072615581297</v>
+        <v>27.46071851186032</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.748341093843967</v>
+        <v>5.325132450435905</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.30972456494274</v>
+        <v>8.471529876688944</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.24066994858188</v>
+        <v>11.52237812010788</v>
       </c>
       <c r="O22">
-        <v>27.16824093887675</v>
+        <v>19.7406338055165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.27629326606183</v>
+        <v>28.03624876925583</v>
       </c>
       <c r="C23">
-        <v>9.46651659771794</v>
+        <v>13.56683950588227</v>
       </c>
       <c r="D23">
-        <v>8.122664476235588</v>
+        <v>5.409470777957545</v>
       </c>
       <c r="E23">
-        <v>12.51687362026422</v>
+        <v>7.224949144405722</v>
       </c>
       <c r="F23">
-        <v>35.53752617812466</v>
+        <v>27.18775872716159</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.756805930751391</v>
+        <v>5.349187340677258</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.29823433327508</v>
+        <v>8.378896740036895</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.26153196710732</v>
+        <v>11.59311975690865</v>
       </c>
       <c r="O23">
-        <v>27.17692569308176</v>
+        <v>19.58088250242019</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.57750269335235</v>
+        <v>25.91155403333183</v>
       </c>
       <c r="C24">
-        <v>9.09899279026607</v>
+        <v>12.76300039713096</v>
       </c>
       <c r="D24">
-        <v>8.113282821389946</v>
+        <v>5.252005877145827</v>
       </c>
       <c r="E24">
-        <v>12.55490316025446</v>
+        <v>7.241283326558248</v>
       </c>
       <c r="F24">
-        <v>35.54064348806568</v>
+        <v>26.18579304873444</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.790164448227157</v>
+        <v>5.442321422335324</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.25695910916946</v>
+        <v>8.024543637627879</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.34378365970834</v>
+        <v>11.86721406962514</v>
       </c>
       <c r="O24">
-        <v>27.2210342075002</v>
+        <v>19.00719429909391</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.80615498248554</v>
+        <v>23.44793732363164</v>
       </c>
       <c r="C25">
-        <v>8.680885141230391</v>
+        <v>11.83766087397071</v>
       </c>
       <c r="D25">
-        <v>8.106214270931869</v>
+        <v>5.083678034740433</v>
       </c>
       <c r="E25">
-        <v>12.60112839112652</v>
+        <v>7.271871587368685</v>
       </c>
       <c r="F25">
-        <v>35.57655051307722</v>
+        <v>25.17414844487818</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.828938867120472</v>
+        <v>5.547233356412879</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.21735331956632</v>
+        <v>7.636335145322932</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.43945853815866</v>
+        <v>12.17582406264109</v>
       </c>
       <c r="O25">
-        <v>27.2924949401667</v>
+        <v>18.45383078775428</v>
       </c>
     </row>
   </sheetData>
